--- a/source/guides/hrsa/uds-plus/StructureDefinition-uds-plus-diagnosis.xlsx
+++ b/source/guides/hrsa/uds-plus/StructureDefinition-uds-plus-diagnosis.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$63</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$64</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2421" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2459" uniqueCount="408">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>2.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-20T09:30:38-04:00</t>
+    <t>2025-03-28T22:48:43+11:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -455,27 +455,47 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
+    <t>Condition.extension:uds-plus-age-extension</t>
+  </si>
+  <si>
+    <t>uds-plus-age-extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://fhir.org/guides/hrsa/uds-plus/StructureDefinition/uds-plus-age-extension}
+</t>
+  </si>
+  <si>
+    <t>Age of the Patient computed using birthDate.</t>
+  </si>
+  <si>
+    <t>Indicates the age of the Patient computed based on date of birth at a specific time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
     <t>Condition.extension:assertedDate</t>
   </si>
   <si>
     <t>assertedDate</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {condition-assertedDate}
+    <t xml:space="preserve">Extension {condition-assertedDate|4.0.1}
 </t>
   </si>
   <si>
-    <t>Date the allergy, intolerance, condition, problem, or diagnosis or other event, situation, issue, or clinical concept was first asserted</t>
-  </si>
-  <si>
-    <t>When the asserter identified the allergy, intolerance, condition, problem, or diagnosis or other event, situation, issue, or clinical concept that may have risen to a level of or remains a concern.  For example, when the patient experiences chest pain, the asserted date represents when the clinician began following the chest pain - not when the patient experienced the chest pain.  Asserted date supports the recognition that information is not always entered in a system immediately.  Assertion and recording are different acts, so asserted date and recorded date are semantically different. However, they may be the same date and close in time.  If this difference is significant for your use case, assertion date may be useful.</t>
+    <t>Date the condition was first asserted</t>
+  </si>
+  <si>
+    <t>The date on which the existence of the Condition was first asserted or acknowledged.</t>
   </si>
   <si>
     <t>The assertedDate is in the context of the recording practitioner and might not be the same as the recordedDate.</t>
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}uds-plus-diag-1:All dateTime data elements should be truncated to a year only for de-identified resources. {$this.value.ofType(dateTime) implies $this.value.ofType(dateTime).toString().length() = 4}</t>
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}uds-plus-diag-1:All dateTime data elements should be truncated to a year only for de-identified resources. {$this.value.ofType(dateTime) implies $this.value.ofType(dateTime).toString().length() = 4}uds-plus-diag-1a:All dateTime data elements should have valid year &gt; 1900 {$this.value.ofType(dateTime) implies $this.value.ofType(dateTime).toString() &gt;= '1900'}uds-plus-diag-1b:All dateTime data elements should have valid year &lt; 2030 {$this.value.ofType(dateTime) implies $this.value.ofType(dateTime).toString() &lt;= '2030'}</t>
   </si>
   <si>
     <t>Condition.modifierExtension</t>
@@ -955,7 +975,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-uds-plus-diag-2:All dateTime data elements should be truncated to a year only for de-identified resources. {$this is DateTime implies $this.toString().length() = 4}uds-plus-diag-3:All Period.start data elements should be truncated to a year only for de-identified resources. {$this is Period and Period.start.exists() implies $this.start.toString().length() = 4}uds-plus-diag-4:All Period.emd data elements should be truncated to a year only for de-identified resources. {$this is Period and Period.end.exists() implies $this.end.toString().length() = 4}</t>
+uds-plus-diag-2:All dateTime data elements should be truncated to a year only for de-identified resources. {$this is DateTime implies $this.toString().length() = 4}uds-plus-diag-2a:All dateTime data elements should have valid year &gt; 1900 {$this is DateTime implies $this.toString() &gt;= '1900'}uds-plus-diag-2b:All dateTime data elements should have valid year &lt; 2030 {$this is DateTime implies $this.toString() &lt;= '2030'}uds-plus-diag-3:All Period.start data elements should be truncated to a year only for de-identified resources. {$this is Period and Period.start.exists() implies $this.start.toString().length() = 4}uds-plus-diag-3a:All Period.start data elements should have valid year &gt; 1900 {$this is Period and Period.start.exists() implies $this.start.toString() &gt;= '1900'}uds-plus-diag-3b:All Period.start data elements should have valid year &lt; 2030 {$this is Period and Period.start.exists() implies $this.start.toString() &lt;= '2030'}uds-plus-diag-4:All Period.emd data elements should be truncated to a year only for de-identified resources. {$this is Period and Period.end.exists() implies $this.end.toString().length() = 4}uds-plus-diag-4a:All Period.start data elements should have valid year &gt; 1900 {$this is Period and Period.end.exists() implies $this.end.toString() &gt;= '1900'}uds-plus-diag-4b:All Period.start data elements should have valid year &lt; 2030 {$this is Period and Period.end.exists() implies $this.end.toString() &lt;= '2030'}</t>
   </si>
   <si>
     <t>Event.occurrence[x]</t>
@@ -987,7 +1007,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-uds-plus-diag-5:All dateTime data elements should be truncated to a year only for de-identified resources. {$this is DateTime implies $this.toString().length() = 4}uds-plus-diag-6:All Period.start data elements should be truncated to a year only for de-identified resources. {$this is Period and Period.start.exists() implies $this.start.toString().length() = 4}uds-plus-diag-7:All Period.emd data elements should be truncated to a year only for de-identified resources. {$this is Period and Period.end.exists() implies $this.end.toString().length() = 4}</t>
+uds-plus-diag-5:All dateTime data elements should be truncated to a year only for de-identified resources. {$this is DateTime implies $this.toString().length() = 4}uds-plus-diag-5a:All dateTime data elements should have valid year &gt; 1900 {$this is DateTime implies $this.toString() &gt;= '1900'}uds-plus-diag-5b:All dateTime data elements should have valid year &lt; 2030 {$this is DateTime implies $this.toString() &lt;= '2030'}uds-plus-diag-6:All Period.start data elements should be truncated to a year only for de-identified resources. {$this is Period and Period.start.exists() implies $this.start.toString().length() = 4}uds-plus-diag-6a:All Period.start data elements should have valid year &gt; 1900 {$this is Period and Period.start.exists() implies $this.start.toString() &gt;= '1900'}uds-plus-diag-6b:All Period.start data elements should have valid year &lt; 2030 {$this is Period and Period.start.exists() implies $this.start.toString() &lt;= '2030'}uds-plus-diag-7:All Period.emd data elements should be truncated to a year only for de-identified resources. {$this is Period and Period.end.exists() implies $this.end.toString().length() = 4}uds-plus-diag-7a:All Period.start data elements should have valid year &gt; 1900 {$this is Period and Period.end.exists() implies $this.end.toString() &gt;= '1900'}uds-plus-diag-7b:All Period.start data elements should have valid year &lt; 2030 {$this is Period and Period.end.exists() implies $this.end.toString() &lt;= '2030'}</t>
   </si>
   <si>
     <t>.effectiveTime.high or .inboundRelationship[typeCode=SUBJ].source[classCode=OBS, moodCode=EVN, code="age at remission"].value or .inboundRelationship[typeCode=SUBJ]source[classCode=CONC, moodCode=EVN].status=completed</t>
@@ -1010,7 +1030,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-uds-plus-diag-8:All dateTime data elements should be truncated to a year only for de-identified resources. {$this.toString().length() = 4}</t>
+uds-plus-diag-8:All dateTime data elements should be truncated to a year only for de-identified resources. {$this.toString().length() = 4}uds-plus-diag-8a:All dateTime data elements should have valid year &gt; 1900 {$this is DateTime implies $this.toString() &gt;= '1900'}uds-plus-diag-8b:All dateTime data elements should have valid year &lt; 2030 {$this is DateTime implies $this.toString() &lt;= '2030'}</t>
   </si>
   <si>
     <t>REL-11</t>
@@ -1604,7 +1624,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP63"/>
+  <dimension ref="A1:AP64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1613,9 +1633,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="34.86328125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="41.6796875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="34.86328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.65234375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="23.10546875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
@@ -2774,9 +2794,7 @@
       <c r="M10" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="N10" t="s" s="2">
-        <v>146</v>
-      </c>
+      <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>79</v>
@@ -2834,10 +2852,10 @@
         <v>81</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>79</v>
+        <v>146</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>79</v>
@@ -2860,33 +2878,35 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="C11" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="B11" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>149</v>
+        <v>79</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="J11" t="s" s="2">
         <v>79</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="L11" t="s" s="2">
         <v>150</v>
@@ -2897,9 +2917,7 @@
       <c r="N11" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="O11" t="s" s="2">
-        <v>153</v>
-      </c>
+      <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>79</v>
       </c>
@@ -2947,7 +2965,7 @@
         <v>79</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>80</v>
@@ -2956,10 +2974,10 @@
         <v>81</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>79</v>
+        <v>146</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>79</v>
@@ -2971,7 +2989,7 @@
         <v>79</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>132</v>
+        <v>79</v>
       </c>
       <c r="AO11" t="s" s="2">
         <v>79</v>
@@ -2982,14 +3000,14 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>79</v>
+        <v>155</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
@@ -3002,25 +3020,25 @@
         <v>79</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="M12" t="s" s="2">
+      <c r="N12" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="N12" t="s" s="2">
+      <c r="O12" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="O12" t="s" s="2">
-        <v>160</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>79</v>
@@ -3069,7 +3087,7 @@
         <v>79</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>80</v>
@@ -3081,10 +3099,10 @@
         <v>79</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>161</v>
+        <v>79</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>79</v>
@@ -3093,10 +3111,10 @@
         <v>79</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>162</v>
+        <v>132</v>
       </c>
       <c r="AO12" t="s" s="2">
-        <v>163</v>
+        <v>79</v>
       </c>
       <c r="AP12" t="s" s="2">
         <v>79</v>
@@ -3104,10 +3122,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3118,30 +3136,32 @@
         <v>80</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="J13" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="L13" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="M13" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="N13" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="O13" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="M13" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>79</v>
       </c>
@@ -3165,13 +3185,13 @@
         <v>79</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>169</v>
+        <v>79</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>170</v>
+        <v>79</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>171</v>
+        <v>79</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>79</v>
@@ -3189,34 +3209,34 @@
         <v>79</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>172</v>
+        <v>79</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>174</v>
+        <v>79</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>175</v>
+        <v>79</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="AO13" t="s" s="2">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="AP13" t="s" s="2">
         <v>79</v>
@@ -3224,10 +3244,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3250,16 +3270,16 @@
         <v>90</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3285,13 +3305,13 @@
         <v>79</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>79</v>
@@ -3309,7 +3329,7 @@
         <v>79</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>80</v>
@@ -3318,36 +3338,36 @@
         <v>89</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="AP14" t="s" s="2">
-        <v>188</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3355,7 +3375,7 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>89</v>
@@ -3364,22 +3384,22 @@
         <v>90</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3405,13 +3425,13 @@
         <v>79</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>193</v>
+        <v>175</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>79</v>
@@ -3429,45 +3449,45 @@
         <v>79</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>79</v>
+        <v>190</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>79</v>
+        <v>179</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="AP15" t="s" s="2">
-        <v>79</v>
+        <v>194</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3475,13 +3495,13 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>89</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>79</v>
@@ -3490,16 +3510,16 @@
         <v>79</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3525,13 +3545,13 @@
         <v>79</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>113</v>
+        <v>199</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>79</v>
@@ -3549,13 +3569,13 @@
         <v>79</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>79</v>
@@ -3567,61 +3587,61 @@
         <v>79</v>
       </c>
       <c r="AL16" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="AM16" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="AN16" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="AO16" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="AM16" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="AN16" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="AO16" t="s" s="2">
-        <v>207</v>
-      </c>
       <c r="AP16" t="s" s="2">
-        <v>208</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>210</v>
+        <v>79</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>89</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="N17" s="2"/>
-      <c r="O17" t="s" s="2">
-        <v>213</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>79</v>
       </c>
@@ -3645,13 +3665,13 @@
         <v>79</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>193</v>
+        <v>113</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>79</v>
@@ -3669,7 +3689,7 @@
         <v>79</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>80</v>
@@ -3684,44 +3704,44 @@
         <v>101</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>216</v>
+        <v>79</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="AP17" t="s" s="2">
-        <v>221</v>
+        <v>214</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>79</v>
+        <v>216</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>79</v>
@@ -3730,18 +3750,18 @@
         <v>90</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="O18" s="2"/>
+        <v>218</v>
+      </c>
+      <c r="N18" s="2"/>
+      <c r="O18" t="s" s="2">
+        <v>219</v>
+      </c>
       <c r="P18" t="s" s="2">
         <v>79</v>
       </c>
@@ -3765,13 +3785,13 @@
         <v>79</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>226</v>
+        <v>199</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>79</v>
@@ -3789,13 +3809,13 @@
         <v>79</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>79</v>
@@ -3804,44 +3824,44 @@
         <v>101</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>79</v>
+        <v>222</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>79</v>
+        <v>224</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>79</v>
+        <v>226</v>
       </c>
       <c r="AP18" t="s" s="2">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>233</v>
+        <v>79</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>79</v>
@@ -3850,18 +3870,18 @@
         <v>90</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>234</v>
+        <v>171</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="N19" s="2"/>
-      <c r="O19" t="s" s="2">
-        <v>237</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>79</v>
       </c>
@@ -3885,13 +3905,13 @@
         <v>79</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>79</v>
+        <v>232</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>79</v>
+        <v>233</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>79</v>
+        <v>234</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>79</v>
@@ -3909,13 +3929,13 @@
         <v>79</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>79</v>
@@ -3924,62 +3944,64 @@
         <v>101</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>238</v>
+        <v>79</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>79</v>
+        <v>235</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>239</v>
+        <v>79</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>241</v>
+        <v>79</v>
       </c>
       <c r="AP19" t="s" s="2">
-        <v>79</v>
+        <v>237</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>79</v>
+        <v>239</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>89</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="L20" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="N20" s="2"/>
+      <c r="O20" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="L20" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>79</v>
       </c>
@@ -4027,10 +4049,10 @@
         <v>79</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>89</v>
@@ -4039,22 +4061,22 @@
         <v>79</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>79</v>
+        <v>244</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>79</v>
+        <v>245</v>
       </c>
       <c r="AN20" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="AO20" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="AO20" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AP20" t="s" s="2">
         <v>79</v>
@@ -4069,14 +4091,14 @@
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>149</v>
+        <v>79</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>79</v>
@@ -4088,17 +4110,15 @@
         <v>79</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>134</v>
+        <v>249</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>152</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>79</v>
@@ -4135,16 +4155,16 @@
         <v>79</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>251</v>
+        <v>79</v>
       </c>
       <c r="AD21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>138</v>
+        <v>79</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>252</v>
@@ -4153,13 +4173,13 @@
         <v>80</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>140</v>
+        <v>79</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>79</v>
@@ -4171,7 +4191,7 @@
         <v>79</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>79</v>
@@ -4182,21 +4202,21 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>79</v>
+        <v>155</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>79</v>
@@ -4205,19 +4225,19 @@
         <v>79</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>243</v>
+        <v>134</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>256</v>
+        <v>158</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4255,31 +4275,31 @@
         <v>79</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>79</v>
+        <v>257</v>
       </c>
       <c r="AD22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>79</v>
+        <v>138</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>258</v>
+        <v>79</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>79</v>
@@ -4291,7 +4311,7 @@
         <v>79</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>132</v>
+        <v>253</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>79</v>
@@ -4328,7 +4348,7 @@
         <v>90</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>103</v>
+        <v>249</v>
       </c>
       <c r="L23" t="s" s="2">
         <v>260</v>
@@ -4363,31 +4383,31 @@
         <v>79</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>193</v>
+        <v>79</v>
       </c>
       <c r="Y23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF23" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="Z23" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="AA23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF23" t="s" s="2">
-        <v>265</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>80</v>
@@ -4396,7 +4416,7 @@
         <v>89</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>79</v>
+        <v>264</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>101</v>
@@ -4422,10 +4442,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4448,16 +4468,16 @@
         <v>90</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>156</v>
+        <v>103</v>
       </c>
       <c r="L24" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4483,13 +4503,13 @@
         <v>79</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>79</v>
+        <v>199</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>79</v>
+        <v>269</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>79</v>
+        <v>270</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>79</v>
@@ -4507,7 +4527,7 @@
         <v>79</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
@@ -4531,7 +4551,7 @@
         <v>79</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>271</v>
+        <v>132</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>79</v>
@@ -4556,7 +4576,7 @@
         <v>80</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>79</v>
@@ -4568,7 +4588,7 @@
         <v>90</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>243</v>
+        <v>162</v>
       </c>
       <c r="L25" t="s" s="2">
         <v>273</v>
@@ -4651,7 +4671,7 @@
         <v>79</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>132</v>
+        <v>277</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>79</v>
@@ -4662,10 +4682,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4676,10 +4696,10 @@
         <v>80</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>79</v>
@@ -4688,7 +4708,7 @@
         <v>90</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>278</v>
+        <v>249</v>
       </c>
       <c r="L26" t="s" s="2">
         <v>279</v>
@@ -4747,7 +4767,7 @@
         <v>79</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
@@ -4762,19 +4782,19 @@
         <v>101</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>282</v>
+        <v>79</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>283</v>
+        <v>79</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>284</v>
+        <v>132</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>285</v>
+        <v>79</v>
       </c>
       <c r="AP26" t="s" s="2">
         <v>79</v>
@@ -4782,10 +4802,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4799,24 +4819,26 @@
         <v>89</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>243</v>
+        <v>284</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>244</v>
+        <v>285</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>286</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>287</v>
+      </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>79</v>
@@ -4865,7 +4887,7 @@
         <v>79</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>246</v>
+        <v>283</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
@@ -4877,22 +4899,22 @@
         <v>79</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>79</v>
+        <v>288</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>79</v>
+        <v>289</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>247</v>
+        <v>290</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>79</v>
+        <v>291</v>
       </c>
       <c r="AP27" t="s" s="2">
         <v>79</v>
@@ -4900,21 +4922,21 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>149</v>
+        <v>79</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>79</v>
@@ -4926,17 +4948,15 @@
         <v>79</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>134</v>
+        <v>249</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>152</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>79</v>
@@ -4973,16 +4993,16 @@
         <v>79</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>251</v>
+        <v>79</v>
       </c>
       <c r="AD28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>138</v>
+        <v>79</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>252</v>
@@ -4991,13 +5011,13 @@
         <v>80</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>140</v>
+        <v>79</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>79</v>
@@ -5009,7 +5029,7 @@
         <v>79</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>79</v>
@@ -5020,21 +5040,21 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>79</v>
+        <v>155</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>79</v>
@@ -5043,19 +5063,19 @@
         <v>79</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>243</v>
+        <v>134</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>256</v>
+        <v>158</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5093,31 +5113,31 @@
         <v>79</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>79</v>
+        <v>257</v>
       </c>
       <c r="AD29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>79</v>
+        <v>138</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>258</v>
+        <v>79</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>79</v>
@@ -5129,7 +5149,7 @@
         <v>79</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>132</v>
+        <v>253</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>79</v>
@@ -5140,10 +5160,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5166,7 +5186,7 @@
         <v>90</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>103</v>
+        <v>249</v>
       </c>
       <c r="L30" t="s" s="2">
         <v>260</v>
@@ -5201,31 +5221,31 @@
         <v>79</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>193</v>
+        <v>79</v>
       </c>
       <c r="Y30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF30" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="Z30" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="AA30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF30" t="s" s="2">
-        <v>265</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
@@ -5234,7 +5254,7 @@
         <v>89</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>79</v>
+        <v>264</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>101</v>
@@ -5260,10 +5280,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5286,16 +5306,16 @@
         <v>90</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>156</v>
+        <v>103</v>
       </c>
       <c r="L31" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="M31" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5321,13 +5341,13 @@
         <v>79</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>79</v>
+        <v>199</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>79</v>
+        <v>269</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>79</v>
+        <v>270</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>79</v>
@@ -5345,7 +5365,7 @@
         <v>79</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
@@ -5369,7 +5389,7 @@
         <v>79</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>271</v>
+        <v>132</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>79</v>
@@ -5380,10 +5400,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5394,7 +5414,7 @@
         <v>80</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>79</v>
@@ -5406,7 +5426,7 @@
         <v>90</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>243</v>
+        <v>162</v>
       </c>
       <c r="L32" t="s" s="2">
         <v>273</v>
@@ -5489,7 +5509,7 @@
         <v>79</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>132</v>
+        <v>277</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>79</v>
@@ -5500,10 +5520,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5514,10 +5534,10 @@
         <v>80</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>79</v>
@@ -5526,16 +5546,16 @@
         <v>90</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>293</v>
+        <v>249</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>295</v>
+        <v>280</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5585,7 +5605,7 @@
         <v>79</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
@@ -5597,22 +5617,22 @@
         <v>79</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>297</v>
+        <v>101</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>298</v>
+        <v>79</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>299</v>
+        <v>79</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>300</v>
+        <v>132</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>301</v>
+        <v>79</v>
       </c>
       <c r="AP33" t="s" s="2">
         <v>79</v>
@@ -5620,10 +5640,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5643,19 +5663,19 @@
         <v>79</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5705,7 +5725,7 @@
         <v>79</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
@@ -5714,25 +5734,25 @@
         <v>89</v>
       </c>
       <c r="AI34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="AK34" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="AL34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM34" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="AN34" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="AJ34" t="s" s="2">
+      <c r="AO34" t="s" s="2">
         <v>307</v>
-      </c>
-      <c r="AK34" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL34" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM34" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN34" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="AO34" t="s" s="2">
-        <v>309</v>
       </c>
       <c r="AP34" t="s" s="2">
         <v>79</v>
@@ -5740,10 +5760,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5763,18 +5783,20 @@
         <v>79</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="L35" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="N35" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="L35" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>79</v>
@@ -5823,7 +5845,7 @@
         <v>79</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
@@ -5832,25 +5854,25 @@
         <v>89</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>79</v>
+        <v>312</v>
       </c>
       <c r="AJ35" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="AK35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN35" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="AK35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM35" t="s" s="2">
+      <c r="AO35" t="s" s="2">
         <v>315</v>
-      </c>
-      <c r="AN35" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="AO35" t="s" s="2">
-        <v>317</v>
       </c>
       <c r="AP35" t="s" s="2">
         <v>79</v>
@@ -5858,10 +5880,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5875,7 +5897,7 @@
         <v>89</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>79</v>
@@ -5884,13 +5906,13 @@
         <v>90</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="L36" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="M36" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>321</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5941,7 +5963,7 @@
         <v>79</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
@@ -5953,7 +5975,7 @@
         <v>79</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>101</v>
+        <v>320</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>79</v>
@@ -5962,7 +5984,7 @@
         <v>79</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>79</v>
+        <v>321</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>322</v>
@@ -5999,16 +6021,16 @@
         <v>79</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>243</v>
+        <v>325</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>244</v>
+        <v>326</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>245</v>
+        <v>327</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -6059,7 +6081,7 @@
         <v>79</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>246</v>
+        <v>324</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
@@ -6071,7 +6093,7 @@
         <v>79</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>79</v>
@@ -6083,10 +6105,10 @@
         <v>79</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>247</v>
+        <v>328</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>79</v>
+        <v>329</v>
       </c>
       <c r="AP37" t="s" s="2">
         <v>79</v>
@@ -6094,21 +6116,21 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>149</v>
+        <v>79</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>79</v>
@@ -6120,17 +6142,15 @@
         <v>79</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>134</v>
+        <v>249</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>152</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>79</v>
@@ -6167,16 +6187,16 @@
         <v>79</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>251</v>
+        <v>79</v>
       </c>
       <c r="AD38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>138</v>
+        <v>79</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>252</v>
@@ -6185,13 +6205,13 @@
         <v>80</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>140</v>
+        <v>79</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>79</v>
@@ -6203,7 +6223,7 @@
         <v>79</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>79</v>
@@ -6214,21 +6234,21 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>79</v>
+        <v>155</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>79</v>
@@ -6237,19 +6257,19 @@
         <v>79</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>243</v>
+        <v>134</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>256</v>
+        <v>158</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6287,31 +6307,31 @@
         <v>79</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>79</v>
+        <v>257</v>
       </c>
       <c r="AD39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>79</v>
+        <v>138</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>258</v>
+        <v>79</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>79</v>
@@ -6323,7 +6343,7 @@
         <v>79</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>132</v>
+        <v>253</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>79</v>
@@ -6334,10 +6354,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6360,7 +6380,7 @@
         <v>90</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>103</v>
+        <v>249</v>
       </c>
       <c r="L40" t="s" s="2">
         <v>260</v>
@@ -6395,31 +6415,31 @@
         <v>79</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>193</v>
+        <v>79</v>
       </c>
       <c r="Y40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF40" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="Z40" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="AA40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF40" t="s" s="2">
-        <v>265</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
@@ -6428,7 +6448,7 @@
         <v>89</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>79</v>
+        <v>264</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>101</v>
@@ -6454,10 +6474,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6480,16 +6500,16 @@
         <v>90</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>156</v>
+        <v>103</v>
       </c>
       <c r="L41" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="M41" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6515,13 +6535,13 @@
         <v>79</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>79</v>
+        <v>199</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>79</v>
+        <v>269</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>79</v>
+        <v>270</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>79</v>
@@ -6539,7 +6559,7 @@
         <v>79</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
@@ -6563,7 +6583,7 @@
         <v>79</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>271</v>
+        <v>132</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>79</v>
@@ -6574,10 +6594,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6588,7 +6608,7 @@
         <v>80</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>79</v>
@@ -6600,7 +6620,7 @@
         <v>90</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>243</v>
+        <v>162</v>
       </c>
       <c r="L42" t="s" s="2">
         <v>273</v>
@@ -6683,7 +6703,7 @@
         <v>79</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>132</v>
+        <v>277</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>79</v>
@@ -6694,10 +6714,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6708,7 +6728,7 @@
         <v>80</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>79</v>
@@ -6720,15 +6740,17 @@
         <v>90</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>319</v>
+        <v>249</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>331</v>
+        <v>279</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="N43" s="2"/>
+        <v>280</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>281</v>
+      </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>79</v>
@@ -6777,7 +6799,7 @@
         <v>79</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>330</v>
+        <v>282</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -6798,13 +6820,13 @@
         <v>79</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>333</v>
+        <v>79</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>334</v>
+        <v>132</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>335</v>
+        <v>79</v>
       </c>
       <c r="AP43" t="s" s="2">
         <v>79</v>
@@ -6835,16 +6857,16 @@
         <v>79</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>243</v>
+        <v>325</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>244</v>
+        <v>337</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>245</v>
+        <v>338</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6895,7 +6917,7 @@
         <v>79</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>246</v>
+        <v>336</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
@@ -6907,7 +6929,7 @@
         <v>79</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>79</v>
@@ -6916,13 +6938,13 @@
         <v>79</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>79</v>
+        <v>339</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>247</v>
+        <v>340</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>79</v>
+        <v>341</v>
       </c>
       <c r="AP44" t="s" s="2">
         <v>79</v>
@@ -6930,21 +6952,21 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>149</v>
+        <v>79</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>79</v>
@@ -6956,17 +6978,15 @@
         <v>79</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>134</v>
+        <v>249</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>152</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>79</v>
@@ -7003,16 +7023,16 @@
         <v>79</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>251</v>
+        <v>79</v>
       </c>
       <c r="AD45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>138</v>
+        <v>79</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>252</v>
@@ -7021,13 +7041,13 @@
         <v>80</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>140</v>
+        <v>79</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>79</v>
@@ -7039,7 +7059,7 @@
         <v>79</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>79</v>
@@ -7050,21 +7070,21 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>79</v>
+        <v>155</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>79</v>
@@ -7073,19 +7093,19 @@
         <v>79</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>243</v>
+        <v>134</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>256</v>
+        <v>158</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -7123,31 +7143,31 @@
         <v>79</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>79</v>
+        <v>257</v>
       </c>
       <c r="AD46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>79</v>
+        <v>138</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>258</v>
+        <v>79</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>79</v>
@@ -7159,7 +7179,7 @@
         <v>79</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>132</v>
+        <v>253</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>79</v>
@@ -7170,10 +7190,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7196,7 +7216,7 @@
         <v>90</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>103</v>
+        <v>249</v>
       </c>
       <c r="L47" t="s" s="2">
         <v>260</v>
@@ -7231,31 +7251,31 @@
         <v>79</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>193</v>
+        <v>79</v>
       </c>
       <c r="Y47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF47" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="Z47" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="AA47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF47" t="s" s="2">
-        <v>265</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -7264,7 +7284,7 @@
         <v>89</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>79</v>
+        <v>264</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>101</v>
@@ -7290,10 +7310,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7316,16 +7336,16 @@
         <v>90</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>156</v>
+        <v>103</v>
       </c>
       <c r="L48" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="M48" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="M48" t="s" s="2">
+      <c r="N48" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7351,13 +7371,13 @@
         <v>79</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>79</v>
+        <v>199</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>79</v>
+        <v>269</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>79</v>
+        <v>270</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>79</v>
@@ -7375,7 +7395,7 @@
         <v>79</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
@@ -7399,7 +7419,7 @@
         <v>79</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>271</v>
+        <v>132</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>79</v>
@@ -7410,10 +7430,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7424,7 +7444,7 @@
         <v>80</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>79</v>
@@ -7436,7 +7456,7 @@
         <v>90</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>243</v>
+        <v>162</v>
       </c>
       <c r="L49" t="s" s="2">
         <v>273</v>
@@ -7519,7 +7539,7 @@
         <v>79</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>132</v>
+        <v>277</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>79</v>
@@ -7530,10 +7550,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7544,7 +7564,7 @@
         <v>80</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>79</v>
@@ -7553,18 +7573,20 @@
         <v>79</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>343</v>
+        <v>249</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>344</v>
+        <v>279</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="N50" s="2"/>
+        <v>280</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>281</v>
+      </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>79</v>
@@ -7613,19 +7635,19 @@
         <v>79</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>342</v>
+        <v>282</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>346</v>
+        <v>101</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>79</v>
@@ -7637,7 +7659,7 @@
         <v>79</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>347</v>
+        <v>132</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>79</v>
@@ -7662,7 +7684,7 @@
         <v>80</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>79</v>
@@ -7674,13 +7696,13 @@
         <v>79</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>243</v>
+        <v>349</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>244</v>
+        <v>350</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>245</v>
+        <v>351</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7731,19 +7753,19 @@
         <v>79</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>246</v>
+        <v>348</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>79</v>
+        <v>352</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>79</v>
@@ -7755,7 +7777,7 @@
         <v>79</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>247</v>
+        <v>353</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>79</v>
@@ -7766,21 +7788,21 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>149</v>
+        <v>79</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>79</v>
@@ -7792,17 +7814,15 @@
         <v>79</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>134</v>
+        <v>249</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>152</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>79</v>
@@ -7857,13 +7877,13 @@
         <v>80</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>140</v>
+        <v>79</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>79</v>
@@ -7875,7 +7895,7 @@
         <v>79</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>79</v>
@@ -7886,14 +7906,14 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>351</v>
+        <v>155</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -7906,26 +7926,24 @@
         <v>79</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K53" t="s" s="2">
         <v>134</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>352</v>
+        <v>255</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>353</v>
+        <v>256</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>153</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>79</v>
       </c>
@@ -7973,7 +7991,7 @@
         <v>79</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>354</v>
+        <v>258</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -7997,7 +8015,7 @@
         <v>79</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>132</v>
+        <v>253</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>79</v>
@@ -8008,42 +8026,46 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>79</v>
+        <v>357</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>165</v>
+        <v>134</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="N54" s="2"/>
-      <c r="O54" s="2"/>
+        <v>359</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="O54" t="s" s="2">
+        <v>159</v>
+      </c>
       <c r="P54" t="s" s="2">
         <v>79</v>
       </c>
@@ -8067,13 +8089,13 @@
         <v>79</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>226</v>
+        <v>79</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>358</v>
+        <v>79</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>359</v>
+        <v>79</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>79</v>
@@ -8091,31 +8113,31 @@
         <v>79</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>360</v>
+        <v>79</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>361</v>
+        <v>79</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>175</v>
+        <v>79</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>219</v>
+        <v>132</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>79</v>
@@ -8126,10 +8148,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8140,7 +8162,7 @@
         <v>80</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>79</v>
@@ -8152,13 +8174,13 @@
         <v>79</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="M55" t="s" s="2">
         <v>363</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>365</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8185,13 +8207,13 @@
         <v>79</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>79</v>
+        <v>232</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>79</v>
+        <v>364</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>79</v>
+        <v>365</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>79</v>
@@ -8209,16 +8231,16 @@
         <v>79</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>101</v>
@@ -8227,13 +8249,13 @@
         <v>79</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>79</v>
+        <v>367</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>79</v>
+        <v>181</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>366</v>
+        <v>225</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>79</v>
@@ -8244,10 +8266,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8258,7 +8280,7 @@
         <v>80</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>79</v>
@@ -8270,13 +8292,13 @@
         <v>79</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>165</v>
+        <v>369</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8303,13 +8325,13 @@
         <v>79</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>226</v>
+        <v>79</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>370</v>
+        <v>79</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>371</v>
+        <v>79</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>79</v>
@@ -8327,16 +8349,16 @@
         <v>79</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>79</v>
+        <v>366</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>101</v>
@@ -8376,7 +8398,7 @@
         <v>80</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>79</v>
@@ -8388,7 +8410,7 @@
         <v>79</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>343</v>
+        <v>171</v>
       </c>
       <c r="L57" t="s" s="2">
         <v>374</v>
@@ -8396,9 +8418,7 @@
       <c r="M57" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="N57" t="s" s="2">
-        <v>376</v>
-      </c>
+      <c r="N57" s="2"/>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>79</v>
@@ -8423,13 +8443,13 @@
         <v>79</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>79</v>
+        <v>232</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>79</v>
+        <v>376</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>79</v>
+        <v>377</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>79</v>
@@ -8453,13 +8473,13 @@
         <v>80</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>377</v>
+        <v>101</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>79</v>
@@ -8496,7 +8516,7 @@
         <v>80</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>79</v>
@@ -8508,15 +8528,17 @@
         <v>79</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>243</v>
+        <v>349</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>244</v>
+        <v>380</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="N58" s="2"/>
+        <v>381</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>382</v>
+      </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>79</v>
@@ -8565,19 +8587,19 @@
         <v>79</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>246</v>
+        <v>379</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>79</v>
+        <v>383</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>79</v>
@@ -8589,7 +8611,7 @@
         <v>79</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>247</v>
+        <v>384</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>79</v>
@@ -8600,21 +8622,21 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>149</v>
+        <v>79</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>79</v>
@@ -8626,17 +8648,15 @@
         <v>79</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>134</v>
+        <v>249</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>152</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="N59" s="2"/>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>79</v>
@@ -8691,13 +8711,13 @@
         <v>80</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>140</v>
+        <v>79</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>79</v>
@@ -8709,7 +8729,7 @@
         <v>79</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>79</v>
@@ -8720,14 +8740,14 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>351</v>
+        <v>155</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -8740,26 +8760,24 @@
         <v>79</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K60" t="s" s="2">
         <v>134</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>352</v>
+        <v>255</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>353</v>
+        <v>256</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>153</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>79</v>
       </c>
@@ -8807,7 +8825,7 @@
         <v>79</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>354</v>
+        <v>258</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
@@ -8831,7 +8849,7 @@
         <v>79</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>132</v>
+        <v>253</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>79</v>
@@ -8842,14 +8860,14 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>79</v>
+        <v>357</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
@@ -8862,22 +8880,26 @@
         <v>79</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="J61" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>165</v>
+        <v>134</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>383</v>
+        <v>358</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="N61" s="2"/>
-      <c r="O61" s="2"/>
+        <v>359</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="O61" t="s" s="2">
+        <v>159</v>
+      </c>
       <c r="P61" t="s" s="2">
         <v>79</v>
       </c>
@@ -8901,13 +8923,13 @@
         <v>79</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>226</v>
+        <v>79</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>385</v>
+        <v>79</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>386</v>
+        <v>79</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>79</v>
@@ -8925,7 +8947,7 @@
         <v>79</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>382</v>
+        <v>360</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
@@ -8934,25 +8956,25 @@
         <v>81</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>387</v>
+        <v>79</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>388</v>
+        <v>79</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>195</v>
+        <v>79</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>389</v>
+        <v>132</v>
       </c>
       <c r="AO61" t="s" s="2">
-        <v>390</v>
+        <v>79</v>
       </c>
       <c r="AP61" t="s" s="2">
         <v>79</v>
@@ -8960,10 +8982,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8986,13 +9008,13 @@
         <v>90</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>392</v>
+        <v>171</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -9019,13 +9041,13 @@
         <v>79</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>79</v>
+        <v>232</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>79</v>
+        <v>391</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>79</v>
+        <v>392</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>79</v>
@@ -9043,7 +9065,7 @@
         <v>79</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
@@ -9052,25 +9074,25 @@
         <v>81</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>79</v>
+        <v>394</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>79</v>
+        <v>201</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>366</v>
+        <v>395</v>
       </c>
       <c r="AO62" t="s" s="2">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="AP62" t="s" s="2">
         <v>79</v>
@@ -9078,10 +9100,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9092,7 +9114,7 @@
         <v>80</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>79</v>
@@ -9101,16 +9123,16 @@
         <v>79</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -9161,7 +9183,7 @@
         <v>79</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
@@ -9170,32 +9192,150 @@
         <v>81</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>79</v>
+        <v>393</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>399</v>
+        <v>79</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>400</v>
+        <v>79</v>
       </c>
       <c r="AN63" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="AO63" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="AP63" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="64" hidden="true">
+      <c r="A64" t="s" s="2">
         <v>401</v>
       </c>
-      <c r="AO63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP63" t="s" s="2">
+      <c r="B64" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="C64" s="2"/>
+      <c r="D64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E64" s="2"/>
+      <c r="F64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="N64" s="2"/>
+      <c r="O64" s="2"/>
+      <c r="P64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q64" s="2"/>
+      <c r="R64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM64" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="AN64" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="AO64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP64" t="s" s="2">
         <v>79</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP63">
+  <autoFilter ref="A1:AP64">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -9205,7 +9345,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI62">
+  <conditionalFormatting sqref="A2:AI63">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
